--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish_Katepallewar\eclipse-workspace\TestDataProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB29B3-4428-4BEF-8875-0193DC270373}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45238E6A-460F-48FE-BEAE-9EB44BEE43B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="1470" windowWidth="20820" windowHeight="11835" xr2:uid="{C7374F6E-6F6E-499E-AB1B-F4A59F8D2804}"/>
+    <workbookView xWindow="1770" yWindow="735" windowWidth="20820" windowHeight="11835" xr2:uid="{C7374F6E-6F6E-499E-AB1B-F4A59F8D2804}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>SuiteName</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>CustomerSuite</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -403,10 +400,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
